--- a/Assets/StreamingAssets/6_Mei_Ming.xlsx
+++ b/Assets/StreamingAssets/6_Mei_Ming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2306EC9-A4A9-5443-A9E8-043E80EAA767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560726E0-EC11-1C4E-AF48-F2B0E80F9AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="54">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -756,6 +756,9 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -773,6 +776,9 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -790,6 +796,9 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -807,6 +816,9 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -824,6 +836,9 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -841,6 +856,9 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -858,6 +876,9 @@
       <c r="D9" t="s">
         <v>13</v>
       </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -869,6 +890,9 @@
       <c r="D10" t="s">
         <v>13</v>
       </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -880,6 +904,9 @@
       <c r="D11" t="s">
         <v>13</v>
       </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -897,6 +924,9 @@
       <c r="D12" t="s">
         <v>13</v>
       </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2">
         <v>500</v>
@@ -918,6 +948,9 @@
       <c r="D13" t="s">
         <v>13</v>
       </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -935,6 +968,9 @@
       <c r="D14" t="s">
         <v>13</v>
       </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -952,6 +988,9 @@
       <c r="D15" t="s">
         <v>13</v>
       </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -963,6 +1002,9 @@
       <c r="D16" t="s">
         <v>13</v>
       </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -980,6 +1022,9 @@
       <c r="D17" t="s">
         <v>13</v>
       </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -997,6 +1042,9 @@
       <c r="D18" t="s">
         <v>13</v>
       </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1014,6 +1062,9 @@
       <c r="D19" t="s">
         <v>13</v>
       </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2">
         <v>500</v>
@@ -1035,6 +1086,9 @@
       <c r="D20" t="s">
         <v>13</v>
       </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1052,6 +1106,9 @@
       <c r="D21" t="s">
         <v>13</v>
       </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1069,6 +1126,9 @@
       <c r="D22" t="s">
         <v>13</v>
       </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1086,6 +1146,9 @@
       <c r="D23" t="s">
         <v>13</v>
       </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1096,6 +1159,9 @@
       </c>
       <c r="B24" s="1" t="s">
         <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>14</v>

--- a/Assets/StreamingAssets/6_Mei_Ming.xlsx
+++ b/Assets/StreamingAssets/6_Mei_Ming.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560726E0-EC11-1C4E-AF48-F2B0E80F9AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFDE5CD-014D-C243-8B48-E312901A6DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="56">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,22 +153,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Alright… though my mind is a bit of a mess. I’m not sure I can answer clearly.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>When was the last time you saw the Lord?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The last time I saw my father…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It must have been just before the You hour. We had a huge argument, and I stormed out of the room.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Do you remember, sir? I ran into you at the pavilion back then.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,42 +169,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>To think the last time we met was in anger…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I wonder what Ming feels in his heart now. Is there regret?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>At You zheng yi ke, I saw signs of rain and headed toward the banquet hall.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>On the way, I ran into the newly arrived Master Kong, so we walked together.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I recall—it started raining just as you both arrived at the banquet hall?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yes.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Such a subtle difference in timing.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>After the banquet started, I only left once—around Wu chu er ke, I went to the back courtyard to urge Father to join us, but couldn’t find him.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can you tell me more about your trip to the back courtyard?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Alright. I searched the study and my parents’ bedroom, but didn’t see Father anywhere.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,14 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Not until Wu zheng er ke, when we all went together to look for him.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>When you went to and from the back courtyard, did you pass through the front courtyard?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No. I went back and forth via the corridor.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,6 +198,66 @@
   </si>
   <si>
     <t>StoryScript7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Such a subtle difference in timing.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(I wonder what Ming feels in his heart now. Is there regret?)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You went to parents’ bedroom?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alright......though my mind is a bit of a mess. I’m not sure I can answer clearly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The last time I saw my father......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>At 6.15 PM, I saw signs of rain and headed toward the banquet hall.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On the way, I ran into the newly arrived Kong, so we walked together.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I recall——it started raining just as you both arrived at the banquet hall?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After the banquet started, I only left once——around  7.45 PM, I went to the back courtyard to urge Father to join us, but couldn’t find him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes. At the time, Mother was probably bathing behind the screen——her damp clothes were hanging on the rack next to it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not until 8.30 PM, when we all went together to look for him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you went to and from the backyard, did you pass through the frontyard?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can you tell me more about your trip to the backyard?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(To think the last time we met was in anger......)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It must have been just before the 6 PM. We had a huge argument, and I stormed out of the room.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -272,6 +280,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线 (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -302,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,6 +326,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -748,10 +766,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -768,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -788,10 +806,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -808,10 +826,10 @@
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -828,7 +846,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -848,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -868,10 +886,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -883,9 +901,9 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="17">
+    <row r="10" spans="1:16" ht="34">
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -899,7 +917,7 @@
     </row>
     <row r="11" spans="1:16" ht="34">
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -915,8 +933,8 @@
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -927,7 +945,9 @@
       <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K12" s="2">
         <v>500</v>
       </c>
@@ -940,7 +960,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -960,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -980,10 +1000,10 @@
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -995,9 +1015,9 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="17">
+    <row r="16" spans="1:16" ht="34">
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1014,7 +1034,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -1029,12 +1049,12 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="34">
+    <row r="18" spans="1:12" ht="17">
       <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -1054,7 +1074,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -1065,7 +1085,9 @@
       <c r="E19" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K19" s="2">
         <v>500</v>
       </c>
@@ -1078,10 +1100,10 @@
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1093,15 +1115,15 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="34">
+    <row r="21" spans="1:12" ht="17">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -1113,15 +1135,15 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="34">
+    <row r="22" spans="1:12" ht="51">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
@@ -1133,15 +1155,15 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="17">
+    <row r="23" spans="1:12" ht="34">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -1153,24 +1175,65 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="17">
+    <row r="24" spans="1:12" ht="34">
       <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>53</v>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" ht="17">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" ht="17">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>